--- a/data_table/EntityAttrStar.xlsx
+++ b/data_table/EntityAttrStar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -51,6 +51,9 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>attackRange</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
   </si>
   <si>
     <t>移动速度(*1000)</t>
+  </si>
+  <si>
+    <t>攻击距离(*1000)</t>
   </si>
   <si>
     <t>上官翎</t>
@@ -157,11 +163,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -173,30 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,15 +200,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -233,17 +247,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,30 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,15 +270,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,12 +286,42 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,6 +332,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,13 +368,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,55 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,85 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +528,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,63 +615,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,137 +643,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +797,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1139,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C24"/>
+      <selection activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1152,9 +1162,10 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1188,78 +1199,87 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1273,28 +1293,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1308,10 +1331,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -1328,8 +1351,11 @@
       <c r="K5" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1343,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
@@ -1363,8 +1389,11 @@
       <c r="K6" s="7">
         <v>501</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1378,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -1398,8 +1427,11 @@
       <c r="K7" s="7">
         <v>502</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1413,10 +1445,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -1433,8 +1465,11 @@
       <c r="K8" s="7">
         <v>503</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1448,10 +1483,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
@@ -1468,8 +1503,11 @@
       <c r="K9" s="7">
         <v>504</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1483,10 +1521,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4">
         <v>7</v>
@@ -1503,8 +1541,11 @@
       <c r="K10" s="7">
         <v>505</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1518,10 +1559,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4">
         <v>8</v>
@@ -1538,8 +1579,11 @@
       <c r="K11" s="7">
         <v>506</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1553,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4">
         <v>9</v>
@@ -1573,8 +1617,11 @@
       <c r="K12" s="7">
         <v>507</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1588,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4">
         <v>10</v>
@@ -1608,8 +1655,11 @@
       <c r="K13" s="7">
         <v>508</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1623,28 +1673,31 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1658,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16" s="4">
         <v>11</v>
@@ -1678,8 +1731,11 @@
       <c r="K16" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1693,10 +1749,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4">
         <v>12</v>
@@ -1713,8 +1769,11 @@
       <c r="K17" s="7">
         <v>501</v>
       </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1728,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4">
         <v>13</v>
@@ -1748,8 +1807,11 @@
       <c r="K18" s="7">
         <v>502</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1763,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="4">
         <v>14</v>
@@ -1783,8 +1845,11 @@
       <c r="K19" s="7">
         <v>503</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1798,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4">
         <v>15</v>
@@ -1818,8 +1883,11 @@
       <c r="K20" s="7">
         <v>504</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1833,10 +1901,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4">
         <v>16</v>
@@ -1853,8 +1921,11 @@
       <c r="K21" s="7">
         <v>505</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1868,10 +1939,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G22" s="4">
         <v>17</v>
@@ -1888,8 +1959,11 @@
       <c r="K22" s="7">
         <v>506</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1903,10 +1977,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="4">
         <v>18</v>
@@ -1923,8 +1997,11 @@
       <c r="K23" s="7">
         <v>507</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1938,10 +2015,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4">
         <v>19</v>
@@ -1958,6 +2035,84 @@
       <c r="K24" s="7">
         <v>508</v>
       </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12">
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="12:12">
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="12:12">
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="12:12">
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="12:12">
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="12:12">
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="12:12">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="12:12">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="12:12">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="12:12">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="12:12">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="12:12">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="12:12">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="12:12">
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="12:12">
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="12:12">
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/EntityAttrStar.xlsx
+++ b/data_table/EntityAttrStar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>entityId</t>
+    <t>templateId</t>
   </si>
   <si>
     <t>starLevel</t>
@@ -66,7 +66,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>对应实体 id</t>
+    <t>作为模板 id</t>
   </si>
   <si>
     <t>星级</t>
@@ -164,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -180,7 +180,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,92 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,9 +240,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,14 +263,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,73 +332,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,19 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,85 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +535,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +583,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -589,37 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1287,7 +1287,7 @@
         <v>12001001</v>
       </c>
       <c r="C4">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>12001002</v>
       </c>
       <c r="C5">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>12001003</v>
       </c>
       <c r="C6">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1401,7 +1401,7 @@
         <v>12001004</v>
       </c>
       <c r="C7">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -1439,7 +1439,7 @@
         <v>12001005</v>
       </c>
       <c r="C8">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1477,7 +1477,7 @@
         <v>12001006</v>
       </c>
       <c r="C9">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>12001007</v>
       </c>
       <c r="C10">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -1553,7 +1553,7 @@
         <v>12001008</v>
       </c>
       <c r="C11">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1591,7 +1591,7 @@
         <v>12001009</v>
       </c>
       <c r="C12">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>9</v>
@@ -1629,7 +1629,7 @@
         <v>12001010</v>
       </c>
       <c r="C13">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
@@ -1667,7 +1667,7 @@
         <v>12002001</v>
       </c>
       <c r="C15">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>12002002</v>
       </c>
       <c r="C16">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -1743,7 +1743,7 @@
         <v>12002003</v>
       </c>
       <c r="C17">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1781,7 +1781,7 @@
         <v>12002004</v>
       </c>
       <c r="C18">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1819,7 +1819,7 @@
         <v>12002005</v>
       </c>
       <c r="C19">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
@@ -1857,7 +1857,7 @@
         <v>12002006</v>
       </c>
       <c r="C20">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>12002007</v>
       </c>
       <c r="C21">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
         <v>7</v>
@@ -1933,7 +1933,7 @@
         <v>12002008</v>
       </c>
       <c r="C22">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4">
         <v>8</v>
@@ -1971,7 +1971,7 @@
         <v>12002009</v>
       </c>
       <c r="C23">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4">
         <v>9</v>
@@ -2009,7 +2009,7 @@
         <v>12002010</v>
       </c>
       <c r="C24">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
         <v>10</v>
